--- a/Stored Procedures/WebServices/1401/04_تیر/Ahvaz_Emergency/راهنمای وب سرویس‌ میزان بار قطع شده 14010425.xlsx
+++ b/Stored Procedures/WebServices/1401/04_تیر/Ahvaz_Emergency/راهنمای وب سرویس‌ میزان بار قطع شده 14010425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadvar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05602E93-D357-457E-BE1D-6343B2B91115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2E2A9C-EA75-40B5-B37A-0A0B7E660779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>متن پیام</t>
   </si>
   <si>
-    <t>http://IPAddress/EmergencyReport</t>
-  </si>
-  <si>
     <t>PersianDate</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>میزان بار قطع شده کل شرکت (مگاوات) در تاریخ و ساعت داده شده</t>
+  </si>
+  <si>
+    <t>http://IPAddress/TzServices/EmergencyReport</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="29"/>
     </row>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" s="31"/>
     </row>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="8" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -1179,22 +1179,22 @@
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="39"/>
     </row>
@@ -1210,11 +1210,11 @@
     </row>
     <row r="15" spans="1:4" ht="200.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="21"/>
     </row>
